--- a/lib/assets/creatingmatID.xlsx
+++ b/lib/assets/creatingmatID.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="2780" yWindow="3520" windowWidth="25360" windowHeight="17240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -738,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -750,7 +750,7 @@
     <col min="6" max="6" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -784,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -801,7 +801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -817,8 +817,11 @@
       <c r="G4" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -834,8 +837,11 @@
       <c r="G5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -851,8 +857,11 @@
       <c r="G6" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -869,7 +878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -886,7 +895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -903,7 +912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -920,7 +929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -937,7 +946,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -954,7 +963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -971,7 +980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -988,7 +997,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>36</v>
       </c>
